--- a/biology/Botanique/Victor_Parmentier/Victor_Parmentier.xlsx
+++ b/biology/Botanique/Victor_Parmentier/Victor_Parmentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Victor Parmentier' est un cultivar de rose ancienne obtenu par Louis Parmentier avant 1847[1]. Il est fort apprécié pour sa couleur unique, rose carminé, tirant sur le corail.
+'Victor Parmentier' est un cultivar de rose ancienne obtenu par Louis Parmentier avant 1847. Il est fort apprécié pour sa couleur unique, rose carminé, tirant sur le corail.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de rose gallique est exceptionnel par sa couleur rose corail aux bords plus pâles et son délicieux parfum. Les fleurs pleines (26-40 pétales) sont plutôt petites en forme de quartier. La floraison n'est pas remontante[2].
-Son buisson au port érigé exhibe un feuillage fourni vert-clair aux folioles pointues finement dentées. Il peut atteindre 2 mètres de hauteur[1].   
-Il convient aux pays nordiques ou aux régions de moyenne montagne car sa zone de rusticité est de 4b à 8b[1].  
-On peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen en Allemagne ou à la roseraie du château du Mesnil-Geoffroy[3] en Normandie. Cette rose ancienne admirable figure dans nombre de catalogues internationaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de rose gallique est exceptionnel par sa couleur rose corail aux bords plus pâles et son délicieux parfum. Les fleurs pleines (26-40 pétales) sont plutôt petites en forme de quartier. La floraison n'est pas remontante.
+Son buisson au port érigé exhibe un feuillage fourni vert-clair aux folioles pointues finement dentées. Il peut atteindre 2 mètres de hauteur.   
+Il convient aux pays nordiques ou aux régions de moyenne montagne car sa zone de rusticité est de 4b à 8b.  
+On peut l'admirer notamment à l'Europa-Rosarium de Sangerhausen en Allemagne ou à la roseraie du château du Mesnil-Geoffroy en Normandie. Cette rose ancienne admirable figure dans nombre de catalogues internationaux.
 </t>
         </is>
       </c>
